--- a/jacobi/src/test/resources/jacobi/test/data/UnsafeDqdsTest.xlsx
+++ b/jacobi/src/test/resources/jacobi/test/data/UnsafeDqdsTest.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="405" windowWidth="22755" windowHeight="7455" activeTab="6"/>
+    <workbookView xWindow="4680" yWindow="900" windowWidth="22755" windowHeight="7455" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="5x5" sheetId="4" r:id="rId1"/>
@@ -1320,1001 +1320,1001 @@
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1">
         <f ca="1">RAND()*20</f>
-        <v>3.2286839788052069</v>
+        <v>11.100485607615758</v>
       </c>
       <c r="B1">
         <f t="shared" ref="B1:L16" ca="1" si="0">RAND()*20</f>
-        <v>19.72391964781751</v>
+        <v>8.3817951110320372</v>
       </c>
       <c r="C1">
         <f t="shared" ca="1" si="0"/>
-        <v>6.9237796817263675</v>
+        <v>9.3059572665573604</v>
       </c>
       <c r="D1">
         <f t="shared" ca="1" si="0"/>
-        <v>15.748468803795991</v>
+        <v>15.539565034579594</v>
       </c>
       <c r="E1">
         <f t="shared" ca="1" si="0"/>
-        <v>14.553391392171989</v>
+        <v>10.03856401702566</v>
       </c>
       <c r="F1">
         <f t="shared" ca="1" si="0"/>
-        <v>3.6516994503619449</v>
+        <v>19.431787420799065</v>
       </c>
       <c r="G1">
         <f t="shared" ca="1" si="0"/>
-        <v>14.758945826684906</v>
+        <v>8.5620550084064195</v>
       </c>
       <c r="H1">
         <f t="shared" ca="1" si="0"/>
-        <v>11.038425094548803</v>
+        <v>3.9670055939690374</v>
       </c>
       <c r="I1">
         <f t="shared" ca="1" si="0"/>
-        <v>7.1694996249236169</v>
+        <v>10.917059154364422</v>
       </c>
       <c r="J1">
         <f t="shared" ca="1" si="0"/>
-        <v>16.740866963585898</v>
+        <v>10.528394171655401</v>
       </c>
       <c r="K1">
         <f t="shared" ca="1" si="0"/>
-        <v>2.3089215818822462</v>
+        <v>19.320286177044093</v>
       </c>
       <c r="L1">
         <f t="shared" ca="1" si="0"/>
-        <v>5.1032002762370059</v>
+        <v>12.729597582769836</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2">
         <f t="shared" ref="A2:L20" ca="1" si="1">RAND()*20</f>
-        <v>13.536829817318598</v>
+        <v>7.8080872005132518</v>
       </c>
       <c r="B2">
         <f t="shared" ca="1" si="0"/>
-        <v>17.997208392728744</v>
+        <v>5.3135916792997158</v>
       </c>
       <c r="C2">
         <f t="shared" ca="1" si="0"/>
-        <v>14.553649979597406</v>
+        <v>19.909929379012503</v>
       </c>
       <c r="D2">
         <f t="shared" ca="1" si="0"/>
-        <v>19.47354257713452</v>
+        <v>6.4128347890405841</v>
       </c>
       <c r="E2">
         <f t="shared" ca="1" si="0"/>
-        <v>9.4469152499292068</v>
+        <v>19.993287005525197</v>
       </c>
       <c r="F2">
         <f t="shared" ca="1" si="0"/>
-        <v>3.8391876882911724</v>
+        <v>16.551811526210592</v>
       </c>
       <c r="G2">
         <f t="shared" ca="1" si="0"/>
-        <v>15.614499920226102</v>
+        <v>8.6909923520944332</v>
       </c>
       <c r="H2">
         <f t="shared" ca="1" si="0"/>
-        <v>18.873741468545468</v>
+        <v>0.77782117808240958</v>
       </c>
       <c r="I2">
         <f t="shared" ca="1" si="0"/>
-        <v>13.111479985917697</v>
+        <v>8.6123958842948767</v>
       </c>
       <c r="J2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.81703194761176379</v>
+        <v>4.9132163368944193</v>
       </c>
       <c r="K2">
         <f t="shared" ca="1" si="0"/>
-        <v>16.737115598671068</v>
+        <v>10.355657763964093</v>
       </c>
       <c r="L2">
         <f t="shared" ca="1" si="0"/>
-        <v>12.655362996961104</v>
+        <v>14.569937342074804</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3">
         <f t="shared" ca="1" si="1"/>
-        <v>16.542148213667748</v>
+        <v>5.102001101024964</v>
       </c>
       <c r="B3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.16739102731225142</v>
+        <v>14.614147277286406</v>
       </c>
       <c r="C3">
         <f t="shared" ca="1" si="0"/>
-        <v>13.870064866434316</v>
+        <v>0.34188555869598014</v>
       </c>
       <c r="D3">
         <f t="shared" ca="1" si="0"/>
-        <v>9.3439333270006308</v>
+        <v>19.191942390914754</v>
       </c>
       <c r="E3">
         <f t="shared" ca="1" si="0"/>
-        <v>17.347152259123686</v>
+        <v>7.5889221354918952</v>
       </c>
       <c r="F3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.80035392788893267</v>
+        <v>18.878671337304151</v>
       </c>
       <c r="G3">
         <f t="shared" ca="1" si="0"/>
-        <v>3.7163636059929717</v>
+        <v>4.8239906876408423</v>
       </c>
       <c r="H3">
         <f t="shared" ca="1" si="0"/>
-        <v>14.788938146556523</v>
+        <v>10.288672064756339</v>
       </c>
       <c r="I3">
         <f t="shared" ca="1" si="0"/>
-        <v>10.59778420169512</v>
+        <v>15.513857706681913</v>
       </c>
       <c r="J3">
         <f t="shared" ca="1" si="0"/>
-        <v>7.4876572688638898</v>
+        <v>10.639623176552346</v>
       </c>
       <c r="K3">
         <f t="shared" ca="1" si="0"/>
-        <v>14.173890631823285</v>
+        <v>12.656499652878956</v>
       </c>
       <c r="L3">
         <f t="shared" ca="1" si="0"/>
-        <v>4.0613243961127594</v>
+        <v>8.2737880958160162</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4">
         <f t="shared" ca="1" si="1"/>
-        <v>11.52729389961028</v>
+        <v>13.899514206328227</v>
       </c>
       <c r="B4">
         <f t="shared" ca="1" si="0"/>
-        <v>2.1226297168500152</v>
+        <v>2.7700926035857609</v>
       </c>
       <c r="C4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.73012323703169013</v>
+        <v>3.4053671577549416</v>
       </c>
       <c r="D4">
         <f t="shared" ca="1" si="0"/>
-        <v>14.250820461555103</v>
+        <v>0.340631541853611</v>
       </c>
       <c r="E4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.68053246052366401</v>
+        <v>13.172607108859458</v>
       </c>
       <c r="F4">
         <f t="shared" ca="1" si="0"/>
-        <v>13.664637098981732</v>
+        <v>5.3407691798636865</v>
       </c>
       <c r="G4">
         <f t="shared" ca="1" si="0"/>
-        <v>1.0507376523504752</v>
+        <v>19.338346427989247</v>
       </c>
       <c r="H4">
         <f t="shared" ca="1" si="0"/>
-        <v>8.9789391524022637</v>
+        <v>19.440815587595374</v>
       </c>
       <c r="I4">
         <f t="shared" ca="1" si="0"/>
-        <v>2.679761014074804</v>
+        <v>7.1780745580516392E-2</v>
       </c>
       <c r="J4">
         <f t="shared" ca="1" si="0"/>
-        <v>6.9791620660094944</v>
+        <v>15.193876421630712</v>
       </c>
       <c r="K4">
         <f t="shared" ca="1" si="0"/>
-        <v>14.147490935812666</v>
+        <v>15.737207413529053</v>
       </c>
       <c r="L4">
         <f t="shared" ca="1" si="0"/>
-        <v>14.387883566569787</v>
+        <v>15.986595458540318</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5">
         <f t="shared" ca="1" si="1"/>
-        <v>14.123306058401218</v>
+        <v>15.476013537926889</v>
       </c>
       <c r="B5">
         <f t="shared" ca="1" si="0"/>
-        <v>11.159744513314347</v>
+        <v>13.622595149362279</v>
       </c>
       <c r="C5">
         <f t="shared" ca="1" si="0"/>
-        <v>18.647551175662677</v>
+        <v>17.371137255404353</v>
       </c>
       <c r="D5">
         <f t="shared" ca="1" si="0"/>
-        <v>19.804230782966947</v>
+        <v>8.4823205527335617</v>
       </c>
       <c r="E5">
         <f t="shared" ca="1" si="0"/>
-        <v>14.379312310096728</v>
+        <v>15.22438357913218</v>
       </c>
       <c r="F5">
         <f t="shared" ca="1" si="0"/>
-        <v>19.950864496351404</v>
+        <v>4.6066664830630177</v>
       </c>
       <c r="G5">
         <f t="shared" ca="1" si="0"/>
-        <v>2.884452887452329</v>
+        <v>2.5140661435948486</v>
       </c>
       <c r="H5">
         <f t="shared" ca="1" si="0"/>
-        <v>12.866783653008527</v>
+        <v>2.7307551653775519</v>
       </c>
       <c r="I5">
         <f t="shared" ca="1" si="0"/>
-        <v>13.350486907776117</v>
+        <v>12.304918059779284</v>
       </c>
       <c r="J5">
         <f t="shared" ca="1" si="0"/>
-        <v>10.143557564816669</v>
+        <v>2.3541628906376433</v>
       </c>
       <c r="K5">
         <f t="shared" ca="1" si="0"/>
-        <v>3.0038758306021407</v>
+        <v>5.2100659435113794</v>
       </c>
       <c r="L5">
         <f t="shared" ca="1" si="0"/>
-        <v>11.084449995536197</v>
+        <v>7.4033971495586499</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6">
         <f t="shared" ca="1" si="1"/>
-        <v>17.229663178717004</v>
+        <v>13.757864439786157</v>
       </c>
       <c r="B6">
         <f t="shared" ca="1" si="0"/>
-        <v>3.533780546819052</v>
+        <v>13.040481007152678</v>
       </c>
       <c r="C6">
         <f t="shared" ca="1" si="0"/>
-        <v>7.0092692014367426</v>
+        <v>2.8819756496917015</v>
       </c>
       <c r="D6">
         <f t="shared" ca="1" si="0"/>
-        <v>5.2569133609339342</v>
+        <v>1.8378126118177485</v>
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="0"/>
-        <v>15.827508911668072</v>
+        <v>11.400190748224308</v>
       </c>
       <c r="F6">
         <f t="shared" ca="1" si="0"/>
-        <v>15.124584379908416</v>
+        <v>2.5013164019306799</v>
       </c>
       <c r="G6">
         <f t="shared" ca="1" si="0"/>
-        <v>5.698106822531221</v>
+        <v>13.099762109672517</v>
       </c>
       <c r="H6">
         <f t="shared" ca="1" si="0"/>
-        <v>8.9136994517312207</v>
+        <v>13.336392891089343</v>
       </c>
       <c r="I6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.46944878125554812</v>
+        <v>14.031996666000827</v>
       </c>
       <c r="J6">
         <f t="shared" ca="1" si="0"/>
-        <v>11.534972101218258</v>
+        <v>12.97953911226333</v>
       </c>
       <c r="K6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.16858709555298557</v>
+        <v>1.440792822251622</v>
       </c>
       <c r="L6">
         <f t="shared" ca="1" si="0"/>
-        <v>15.053307527840104</v>
+        <v>15.528536559526529</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7">
         <f t="shared" ca="1" si="1"/>
-        <v>18.359600370660413</v>
+        <v>4.7760264056901498</v>
       </c>
       <c r="B7">
         <f t="shared" ca="1" si="0"/>
-        <v>0.61000380037877555</v>
+        <v>18.607064314715764</v>
       </c>
       <c r="C7">
         <f t="shared" ca="1" si="0"/>
-        <v>5.4953506802157808</v>
+        <v>12.028213693824274</v>
       </c>
       <c r="D7">
         <f t="shared" ca="1" si="0"/>
-        <v>13.347739306681872</v>
+        <v>2.737271597208446</v>
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="0"/>
-        <v>1.5111052784557111</v>
+        <v>19.42456688839393</v>
       </c>
       <c r="F7">
         <f t="shared" ca="1" si="0"/>
-        <v>16.300294256635162</v>
+        <v>11.093262524485501</v>
       </c>
       <c r="G7">
         <f t="shared" ca="1" si="0"/>
-        <v>12.473902539197814</v>
+        <v>2.8874766481630298</v>
       </c>
       <c r="H7">
         <f t="shared" ca="1" si="0"/>
-        <v>19.112581421718161</v>
+        <v>8.8599390105016713</v>
       </c>
       <c r="I7">
         <f t="shared" ca="1" si="0"/>
-        <v>0.92168409142920016</v>
+        <v>3.257689645245021</v>
       </c>
       <c r="J7">
         <f t="shared" ca="1" si="0"/>
-        <v>0.45579520038654842</v>
+        <v>9.6991346239861649</v>
       </c>
       <c r="K7">
         <f t="shared" ca="1" si="0"/>
-        <v>2.822281698054705</v>
+        <v>4.9209231634948436</v>
       </c>
       <c r="L7">
         <f t="shared" ca="1" si="0"/>
-        <v>13.307132315186863</v>
+        <v>6.9458734851946025</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8">
         <f t="shared" ca="1" si="1"/>
-        <v>1.3281523438055354</v>
+        <v>12.893326671259686</v>
       </c>
       <c r="B8">
         <f t="shared" ca="1" si="0"/>
-        <v>4.6639237241113847</v>
+        <v>6.0508141387283505</v>
       </c>
       <c r="C8">
         <f t="shared" ca="1" si="0"/>
-        <v>19.96395826650199</v>
+        <v>7.9866686174160817</v>
       </c>
       <c r="D8">
         <f t="shared" ca="1" si="0"/>
-        <v>11.740144663534114</v>
+        <v>17.082205621208171</v>
       </c>
       <c r="E8">
         <f t="shared" ca="1" si="0"/>
-        <v>12.727583604869981</v>
+        <v>0.24286655664564449</v>
       </c>
       <c r="F8">
         <f t="shared" ca="1" si="0"/>
-        <v>8.703552157271508</v>
+        <v>13.041989741224766</v>
       </c>
       <c r="G8">
         <f t="shared" ca="1" si="0"/>
-        <v>13.236343820908484</v>
+        <v>14.119123674757111</v>
       </c>
       <c r="H8">
         <f t="shared" ca="1" si="0"/>
-        <v>4.4931074553754291</v>
+        <v>3.290332913345082</v>
       </c>
       <c r="I8">
         <f t="shared" ca="1" si="0"/>
-        <v>5.4553012572609383</v>
+        <v>0.75355625437569351</v>
       </c>
       <c r="J8">
         <f t="shared" ca="1" si="0"/>
-        <v>15.667234229216611</v>
+        <v>1.4675349391123538</v>
       </c>
       <c r="K8">
         <f t="shared" ca="1" si="0"/>
-        <v>12.018434873713161</v>
+        <v>12.567862402386005</v>
       </c>
       <c r="L8">
         <f t="shared" ca="1" si="0"/>
-        <v>6.4564099811956943</v>
+        <v>0.22338717377144102</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9">
         <f t="shared" ca="1" si="1"/>
-        <v>1.3971581575871195E-2</v>
+        <v>19.111699048516904</v>
       </c>
       <c r="B9">
         <f t="shared" ca="1" si="0"/>
-        <v>16.954675366357723</v>
+        <v>16.666383975380125</v>
       </c>
       <c r="C9">
         <f t="shared" ca="1" si="0"/>
-        <v>14.623271151702777</v>
+        <v>18.073317895368312</v>
       </c>
       <c r="D9">
         <f t="shared" ca="1" si="0"/>
-        <v>5.3434592486208992</v>
+        <v>4.8520902910683583</v>
       </c>
       <c r="E9">
         <f t="shared" ca="1" si="0"/>
-        <v>13.615922850335478</v>
+        <v>6.6037181663133211</v>
       </c>
       <c r="F9">
         <f t="shared" ca="1" si="0"/>
-        <v>13.489121993970066</v>
+        <v>4.6241949254008796</v>
       </c>
       <c r="G9">
         <f t="shared" ca="1" si="0"/>
-        <v>8.6388080412935597</v>
+        <v>19.427491981603296</v>
       </c>
       <c r="H9">
         <f t="shared" ca="1" si="0"/>
-        <v>11.112671086976903</v>
+        <v>19.64145049239324</v>
       </c>
       <c r="I9">
         <f t="shared" ca="1" si="0"/>
-        <v>19.397136519032188</v>
+        <v>2.1428653273810339</v>
       </c>
       <c r="J9">
         <f t="shared" ca="1" si="0"/>
-        <v>7.043884865069856</v>
+        <v>10.464205152116161</v>
       </c>
       <c r="K9">
         <f t="shared" ca="1" si="0"/>
-        <v>15.224138827149766</v>
+        <v>6.887824839047882</v>
       </c>
       <c r="L9">
         <f t="shared" ca="1" si="0"/>
-        <v>18.863785578834815</v>
+        <v>10.000659356191569</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10">
         <f t="shared" ca="1" si="1"/>
-        <v>10.166135687501516</v>
+        <v>0.93028991068830891</v>
       </c>
       <c r="B10">
         <f t="shared" ca="1" si="0"/>
-        <v>15.221421327497069</v>
+        <v>11.332372509320916</v>
       </c>
       <c r="C10">
         <f t="shared" ca="1" si="0"/>
-        <v>1.7874992903547371</v>
+        <v>15.698069083492621</v>
       </c>
       <c r="D10">
         <f t="shared" ca="1" si="0"/>
-        <v>17.498328527520485</v>
+        <v>3.0751460896014127</v>
       </c>
       <c r="E10">
         <f t="shared" ca="1" si="0"/>
-        <v>8.9121292283248632</v>
+        <v>6.5534900406604031</v>
       </c>
       <c r="F10">
         <f t="shared" ca="1" si="0"/>
-        <v>11.262600357544768</v>
+        <v>16.236297530882002</v>
       </c>
       <c r="G10">
         <f t="shared" ca="1" si="0"/>
-        <v>2.3369894435819627</v>
+        <v>14.05106104855324</v>
       </c>
       <c r="H10">
         <f t="shared" ca="1" si="0"/>
-        <v>13.628174603167086</v>
+        <v>2.8007277219964144</v>
       </c>
       <c r="I10">
         <f t="shared" ca="1" si="0"/>
-        <v>8.1765777565284523</v>
+        <v>5.5932692353688811</v>
       </c>
       <c r="J10">
         <f t="shared" ca="1" si="0"/>
-        <v>5.1974456900465587</v>
+        <v>5.7098308567116369</v>
       </c>
       <c r="K10">
         <f t="shared" ca="1" si="0"/>
-        <v>13.254399886986805</v>
+        <v>16.005819270358984</v>
       </c>
       <c r="L10">
         <f t="shared" ca="1" si="0"/>
-        <v>6.5114517664485767</v>
+        <v>6.87750825598674</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11">
         <f t="shared" ca="1" si="1"/>
-        <v>15.692614314493573</v>
+        <v>16.010613895243235</v>
       </c>
       <c r="B11">
         <f t="shared" ca="1" si="0"/>
-        <v>14.893493711787913</v>
+        <v>9.2678296921822749</v>
       </c>
       <c r="C11">
         <f t="shared" ca="1" si="0"/>
-        <v>7.4141572945770662</v>
+        <v>18.489265122244319</v>
       </c>
       <c r="D11">
         <f t="shared" ca="1" si="0"/>
-        <v>1.2816937571019116</v>
+        <v>5.7485854623626009</v>
       </c>
       <c r="E11">
         <f t="shared" ca="1" si="0"/>
-        <v>9.5054432664096709</v>
+        <v>17.5546747444061</v>
       </c>
       <c r="F11">
         <f t="shared" ca="1" si="0"/>
-        <v>19.608622925283608</v>
+        <v>0.66611231363422174</v>
       </c>
       <c r="G11">
         <f t="shared" ca="1" si="0"/>
-        <v>4.1266734434964931</v>
+        <v>12.497898384637461</v>
       </c>
       <c r="H11">
         <f t="shared" ca="1" si="0"/>
-        <v>13.095060535930827</v>
+        <v>18.887921691937347</v>
       </c>
       <c r="I11">
         <f t="shared" ca="1" si="0"/>
-        <v>16.303286451335801</v>
+        <v>4.2533844585259732</v>
       </c>
       <c r="J11">
         <f t="shared" ca="1" si="0"/>
-        <v>6.4133077586995313</v>
+        <v>4.2699423414741533</v>
       </c>
       <c r="K11">
         <f t="shared" ca="1" si="0"/>
-        <v>6.6365692511465397</v>
+        <v>11.587825194241706</v>
       </c>
       <c r="L11">
         <f t="shared" ca="1" si="0"/>
-        <v>16.732550082408601</v>
+        <v>15.132142838821851</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12">
         <f t="shared" ca="1" si="1"/>
-        <v>16.65051151660056</v>
+        <v>13.456823184131089</v>
       </c>
       <c r="B12">
         <f t="shared" ca="1" si="0"/>
-        <v>3.3190364443174603</v>
+        <v>12.055080126036124</v>
       </c>
       <c r="C12">
         <f t="shared" ca="1" si="0"/>
-        <v>14.084475047481739</v>
+        <v>2.1038975560725315</v>
       </c>
       <c r="D12">
         <f t="shared" ca="1" si="0"/>
-        <v>19.490983239543048</v>
+        <v>8.0980787246501649</v>
       </c>
       <c r="E12">
         <f t="shared" ca="1" si="0"/>
-        <v>9.6489683543503659</v>
+        <v>13.626284335427705</v>
       </c>
       <c r="F12">
         <f t="shared" ca="1" si="0"/>
-        <v>15.847628077581762</v>
+        <v>14.666707547198923</v>
       </c>
       <c r="G12">
         <f t="shared" ca="1" si="0"/>
-        <v>1.1086634902178649</v>
+        <v>15.423527815646732</v>
       </c>
       <c r="H12">
         <f t="shared" ca="1" si="0"/>
-        <v>16.012946403553482</v>
+        <v>10.579975610535628</v>
       </c>
       <c r="I12">
         <f t="shared" ca="1" si="0"/>
-        <v>5.1208080559229519</v>
+        <v>18.523666620446701</v>
       </c>
       <c r="J12">
         <f t="shared" ca="1" si="0"/>
-        <v>4.0710426213959678</v>
+        <v>13.587961232166563</v>
       </c>
       <c r="K12">
         <f t="shared" ca="1" si="0"/>
-        <v>19.850172295723151</v>
+        <v>11.006274128938554</v>
       </c>
       <c r="L12">
         <f t="shared" ca="1" si="0"/>
-        <v>12.610739567692743</v>
+        <v>14.160697061280185</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13">
         <f t="shared" ca="1" si="1"/>
-        <v>13.980340122745833</v>
+        <v>7.9572280722837307</v>
       </c>
       <c r="B13">
         <f t="shared" ca="1" si="0"/>
-        <v>16.416733381123375</v>
+        <v>14.971210039211051</v>
       </c>
       <c r="C13">
         <f t="shared" ca="1" si="0"/>
-        <v>10.439415895984132</v>
+        <v>13.514053147788324</v>
       </c>
       <c r="D13">
         <f t="shared" ca="1" si="0"/>
-        <v>16.647692189427829</v>
+        <v>8.6319258641973207</v>
       </c>
       <c r="E13">
         <f t="shared" ca="1" si="0"/>
-        <v>17.660198194232077</v>
+        <v>8.0981430151622043</v>
       </c>
       <c r="F13">
         <f t="shared" ca="1" si="0"/>
-        <v>1.1408728039390459</v>
+        <v>8.8482081716935763</v>
       </c>
       <c r="G13">
         <f t="shared" ca="1" si="0"/>
-        <v>10.90264741921275</v>
+        <v>1.6475338105161641</v>
       </c>
       <c r="H13">
         <f t="shared" ca="1" si="0"/>
-        <v>6.2103673014697129</v>
+        <v>1.1116638569318704</v>
       </c>
       <c r="I13">
         <f t="shared" ca="1" si="0"/>
-        <v>17.899418657237266</v>
+        <v>8.6932297786170469</v>
       </c>
       <c r="J13">
         <f t="shared" ca="1" si="0"/>
-        <v>16.952852644331134</v>
+        <v>12.312646546595138</v>
       </c>
       <c r="K13">
         <f t="shared" ca="1" si="0"/>
-        <v>13.073075895305479</v>
+        <v>2.7686209550930152</v>
       </c>
       <c r="L13">
         <f t="shared" ca="1" si="0"/>
-        <v>9.7991794656677751</v>
+        <v>10.372172990733592</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14">
         <f t="shared" ca="1" si="1"/>
-        <v>12.329131924530154</v>
+        <v>17.527051864043599</v>
       </c>
       <c r="B14">
         <f t="shared" ca="1" si="0"/>
-        <v>10.493360176462751</v>
+        <v>9.6399944686032732</v>
       </c>
       <c r="C14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.86032802245608275</v>
+        <v>13.742819717961661</v>
       </c>
       <c r="D14">
         <f t="shared" ca="1" si="0"/>
-        <v>9.4956896441334209</v>
+        <v>14.156331246714011</v>
       </c>
       <c r="E14">
         <f t="shared" ca="1" si="0"/>
-        <v>16.370886731870222</v>
+        <v>13.292708759682867</v>
       </c>
       <c r="F14">
         <f t="shared" ca="1" si="0"/>
-        <v>9.3867136729114815</v>
+        <v>3.2433166618992759</v>
       </c>
       <c r="G14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.8744157385571838</v>
+        <v>6.8837134371202229</v>
       </c>
       <c r="H14">
         <f t="shared" ca="1" si="0"/>
-        <v>7.9552040184943218</v>
+        <v>16.909927471949977</v>
       </c>
       <c r="I14">
         <f t="shared" ca="1" si="0"/>
-        <v>13.99550908035404</v>
+        <v>11.035443969336427</v>
       </c>
       <c r="J14">
         <f t="shared" ca="1" si="0"/>
-        <v>17.702182952613221</v>
+        <v>4.8012718989453766</v>
       </c>
       <c r="K14">
         <f t="shared" ca="1" si="0"/>
-        <v>5.3345576180174099</v>
+        <v>2.0556352789312604</v>
       </c>
       <c r="L14">
         <f t="shared" ca="1" si="0"/>
-        <v>7.285766096557329</v>
+        <v>13.186219440631568</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15">
         <f t="shared" ca="1" si="1"/>
-        <v>7.8190658412481735</v>
+        <v>10.166951143076375</v>
       </c>
       <c r="B15">
         <f t="shared" ca="1" si="0"/>
-        <v>0.22688914495173629</v>
+        <v>5.9082405516986736</v>
       </c>
       <c r="C15">
         <f t="shared" ca="1" si="0"/>
-        <v>14.695379413931043</v>
+        <v>6.7148386936367572</v>
       </c>
       <c r="D15">
         <f t="shared" ca="1" si="0"/>
-        <v>3.0939144407839181</v>
+        <v>17.467714032456168</v>
       </c>
       <c r="E15">
         <f t="shared" ca="1" si="0"/>
-        <v>5.7996540492207078</v>
+        <v>10.05611686394735</v>
       </c>
       <c r="F15">
         <f t="shared" ca="1" si="0"/>
-        <v>12.420532857960577</v>
+        <v>0.74598264321608099</v>
       </c>
       <c r="G15">
         <f t="shared" ca="1" si="0"/>
-        <v>17.751698994051065</v>
+        <v>15.622124149528965</v>
       </c>
       <c r="H15">
         <f t="shared" ca="1" si="0"/>
-        <v>9.0611721855911966</v>
+        <v>8.1101377877840637</v>
       </c>
       <c r="I15">
         <f t="shared" ca="1" si="0"/>
-        <v>13.808915243223428</v>
+        <v>5.5980716327589057</v>
       </c>
       <c r="J15">
         <f t="shared" ca="1" si="0"/>
-        <v>13.653430121309269</v>
+        <v>7.3547771194302269</v>
       </c>
       <c r="K15">
         <f t="shared" ca="1" si="0"/>
-        <v>15.100301327695449</v>
+        <v>9.6750756501688819</v>
       </c>
       <c r="L15">
         <f t="shared" ca="1" si="0"/>
-        <v>12.063234699288341</v>
+        <v>10.081545835858858</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16">
         <f t="shared" ca="1" si="1"/>
-        <v>10.027618465268889</v>
+        <v>15.831402982150891</v>
       </c>
       <c r="B16">
         <f t="shared" ca="1" si="0"/>
-        <v>14.254565875837731</v>
+        <v>12.520296383244574</v>
       </c>
       <c r="C16">
         <f t="shared" ca="1" si="0"/>
-        <v>3.2203561305537343</v>
+        <v>12.780531873503602</v>
       </c>
       <c r="D16">
         <f t="shared" ca="1" si="0"/>
-        <v>11.340279415453569</v>
+        <v>9.3320147598872936</v>
       </c>
       <c r="E16">
         <f t="shared" ca="1" si="0"/>
-        <v>19.047707080445804</v>
+        <v>18.90840094762957</v>
       </c>
       <c r="F16">
         <f t="shared" ca="1" si="0"/>
-        <v>4.8822605438119488</v>
+        <v>3.3479404983457961</v>
       </c>
       <c r="G16">
         <f t="shared" ca="1" si="0"/>
-        <v>3.1344672406042684</v>
+        <v>5.7482609181545214</v>
       </c>
       <c r="H16">
         <f t="shared" ca="1" si="0"/>
-        <v>17.899176591199549</v>
+        <v>13.283215373759475</v>
       </c>
       <c r="I16">
         <f t="shared" ca="1" si="0"/>
-        <v>9.7481179007804499</v>
+        <v>14.495244848229614</v>
       </c>
       <c r="J16">
         <f t="shared" ca="1" si="0"/>
-        <v>16.476953276398831</v>
+        <v>18.574376451044877</v>
       </c>
       <c r="K16">
         <f t="shared" ca="1" si="0"/>
-        <v>11.409191432725114</v>
+        <v>9.6288766996860549</v>
       </c>
       <c r="L16">
         <f t="shared" ca="1" si="0"/>
-        <v>8.6329914933635479</v>
+        <v>2.4216787177318766</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17">
         <f t="shared" ca="1" si="1"/>
-        <v>19.86839364830842</v>
+        <v>12.729444502180014</v>
       </c>
       <c r="B17">
         <f t="shared" ca="1" si="1"/>
-        <v>11.289406535504337</v>
+        <v>12.40663054657227</v>
       </c>
       <c r="C17">
         <f t="shared" ca="1" si="1"/>
-        <v>3.1306785750533495</v>
+        <v>7.5413376920032444</v>
       </c>
       <c r="D17">
         <f t="shared" ca="1" si="1"/>
-        <v>4.1568181501602925</v>
+        <v>9.1520095080310782</v>
       </c>
       <c r="E17">
         <f t="shared" ca="1" si="1"/>
-        <v>18.925104755025938</v>
+        <v>16.717401728078599</v>
       </c>
       <c r="F17">
         <f t="shared" ca="1" si="1"/>
-        <v>7.2217435739647513</v>
+        <v>15.122473388021529</v>
       </c>
       <c r="G17">
         <f t="shared" ca="1" si="1"/>
-        <v>16.252401613190717</v>
+        <v>0.69440412206903668</v>
       </c>
       <c r="H17">
         <f t="shared" ca="1" si="1"/>
-        <v>3.4994616554076541</v>
+        <v>7.8041288210723021</v>
       </c>
       <c r="I17">
         <f t="shared" ca="1" si="1"/>
-        <v>14.302500730532712</v>
+        <v>15.403780072449154</v>
       </c>
       <c r="J17">
         <f t="shared" ca="1" si="1"/>
-        <v>10.213705819760294</v>
+        <v>14.403935705976636</v>
       </c>
       <c r="K17">
         <f t="shared" ca="1" si="1"/>
-        <v>13.868601158469875</v>
+        <v>3.3288941496041757</v>
       </c>
       <c r="L17">
         <f t="shared" ca="1" si="1"/>
-        <v>10.274782041399915</v>
+        <v>11.35267520397308</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18">
         <f t="shared" ca="1" si="1"/>
-        <v>10.898162607093084</v>
+        <v>14.153707338689991</v>
       </c>
       <c r="B18">
         <f t="shared" ca="1" si="1"/>
-        <v>19.389269207062529</v>
+        <v>9.3305468267644969</v>
       </c>
       <c r="C18">
         <f t="shared" ca="1" si="1"/>
-        <v>18.439991426055485</v>
+        <v>1.2625780753608296</v>
       </c>
       <c r="D18">
         <f t="shared" ca="1" si="1"/>
-        <v>9.862620989318458</v>
+        <v>9.3277477625964131</v>
       </c>
       <c r="E18">
         <f t="shared" ca="1" si="1"/>
-        <v>1.5819495328615707</v>
+        <v>2.8075865223382568E-2</v>
       </c>
       <c r="F18">
         <f t="shared" ca="1" si="1"/>
-        <v>3.3087221273419143</v>
+        <v>4.1786047144797411</v>
       </c>
       <c r="G18">
         <f t="shared" ca="1" si="1"/>
-        <v>19.252248234349562</v>
+        <v>0.93106040567428883</v>
       </c>
       <c r="H18">
         <f t="shared" ca="1" si="1"/>
-        <v>12.848631963021905</v>
+        <v>17.271401618076361</v>
       </c>
       <c r="I18">
         <f t="shared" ca="1" si="1"/>
-        <v>14.005492420790146</v>
+        <v>4.3531005941636014</v>
       </c>
       <c r="J18">
         <f t="shared" ca="1" si="1"/>
-        <v>15.276278210623675</v>
+        <v>7.0901949607503472</v>
       </c>
       <c r="K18">
         <f t="shared" ca="1" si="1"/>
-        <v>1.241458777561788</v>
+        <v>16.111021298410336</v>
       </c>
       <c r="L18">
         <f t="shared" ca="1" si="1"/>
-        <v>17.19795709280044</v>
+        <v>18.421636800989532</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19">
         <f t="shared" ca="1" si="1"/>
-        <v>15.092346026017722</v>
+        <v>2.4814706095660055</v>
       </c>
       <c r="B19">
         <f t="shared" ca="1" si="1"/>
-        <v>7.2495938725559173</v>
+        <v>11.04532022893483</v>
       </c>
       <c r="C19">
         <f t="shared" ca="1" si="1"/>
-        <v>15.383248756403356</v>
+        <v>18.78402240361719</v>
       </c>
       <c r="D19">
         <f t="shared" ca="1" si="1"/>
-        <v>18.186216028853053</v>
+        <v>9.1262124409258583</v>
       </c>
       <c r="E19">
         <f t="shared" ca="1" si="1"/>
-        <v>16.022845747428519</v>
+        <v>6.6076930653869725</v>
       </c>
       <c r="F19">
         <f t="shared" ca="1" si="1"/>
-        <v>16.030092322185457</v>
+        <v>7.6433094741171033</v>
       </c>
       <c r="G19">
         <f t="shared" ca="1" si="1"/>
-        <v>17.44690250168248</v>
+        <v>0.11418635174191616</v>
       </c>
       <c r="H19">
         <f t="shared" ca="1" si="1"/>
-        <v>9.8047843541676905</v>
+        <v>14.807161286486137</v>
       </c>
       <c r="I19">
         <f t="shared" ca="1" si="1"/>
-        <v>7.5630734322430859</v>
+        <v>1.1817782868331239</v>
       </c>
       <c r="J19">
         <f t="shared" ca="1" si="1"/>
-        <v>13.504610975725171</v>
+        <v>18.383902541395301</v>
       </c>
       <c r="K19">
         <f t="shared" ca="1" si="1"/>
-        <v>1.969825789041586</v>
+        <v>9.7842525667383029</v>
       </c>
       <c r="L19">
         <f t="shared" ca="1" si="1"/>
-        <v>10.862588899493787</v>
+        <v>4.3793827144184938</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20">
         <f t="shared" ca="1" si="1"/>
-        <v>2.9676296459531892</v>
+        <v>16.288910442385379</v>
       </c>
       <c r="B20">
         <f t="shared" ca="1" si="1"/>
-        <v>19.602816448702676</v>
+        <v>8.6085276362055971</v>
       </c>
       <c r="C20">
         <f t="shared" ca="1" si="1"/>
-        <v>16.632768758616468</v>
+        <v>16.089559765628881</v>
       </c>
       <c r="D20">
         <f t="shared" ca="1" si="1"/>
-        <v>2.0622985811046246</v>
+        <v>6.5057152885262948</v>
       </c>
       <c r="E20">
         <f t="shared" ca="1" si="1"/>
-        <v>7.2229698882040028</v>
+        <v>0.61416685560642614</v>
       </c>
       <c r="F20">
         <f t="shared" ca="1" si="1"/>
-        <v>5.0094454017442196</v>
+        <v>8.9007875973045714</v>
       </c>
       <c r="G20">
         <f t="shared" ca="1" si="1"/>
-        <v>1.275634475438574</v>
+        <v>3.548328909166385</v>
       </c>
       <c r="H20">
         <f t="shared" ca="1" si="1"/>
-        <v>1.4647684036880593</v>
+        <v>12.317735461382719</v>
       </c>
       <c r="I20">
         <f t="shared" ca="1" si="1"/>
-        <v>0.47450073114555735</v>
+        <v>13.285996141313046</v>
       </c>
       <c r="J20">
         <f t="shared" ca="1" si="1"/>
-        <v>16.041107726139018</v>
+        <v>9.9647472275048372</v>
       </c>
       <c r="K20">
         <f t="shared" ca="1" si="1"/>
-        <v>7.4466593300746053</v>
+        <v>16.914338146708761</v>
       </c>
       <c r="L20">
         <f t="shared" ca="1" si="1"/>
-        <v>11.810184475295237</v>
+        <v>1.4326701471258274</v>
       </c>
     </row>
   </sheetData>
